--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_3_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_3_sawtooth_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.12000000000049</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003735475289244783</v>
+        <v>0.00181169300196804</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01257288229781447</v>
+        <v>0.01736370865652161</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.257855435431504</v>
+        <v>4.426578929815001</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.8813382125838221, 7.634372658279187]</t>
+          <t>[1.5468907701493038, 7.3062670894806985]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.01359094320987997</v>
+        <v>0.00267725356154136</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01359094320987997</v>
+        <v>0.005354507123082719</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.201316173686541</v>
+        <v>-1.798789787641002</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.9183162988301583, -1.4843160485429236]</t>
+          <t>[-2.616421509296004, -0.9811580659860009]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>3.73649733376169e-09</v>
+        <v>1.944869760639456e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>7.47299466752338e-09</v>
+        <v>3.889739521278912e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>14.84999323348042</v>
+        <v>13.2779275959799</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[13.107042853878148, 16.59294361308269]</t>
+          <t>[11.57444867123206, 14.981406520727733]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>8.800800800800967</v>
+        <v>7.208688688688831</v>
       </c>
       <c r="X2" t="n">
-        <v>5.934254254254362</v>
+        <v>3.932012012012088</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.66734734734757</v>
+        <v>10.48536536536557</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.42000000000053</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003226946394840891</v>
+        <v>0.02282489260903875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003141984980507988</v>
+        <v>0.06381024366418274</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.313711252380394</v>
+        <v>3.398310193724882</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.7253242543738843, 8.902098250386905]</t>
+          <t>[0.18949326739847194, 6.607127120051292]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.003842631873914426</v>
+        <v>0.03799947492766553</v>
       </c>
       <c r="N3" t="n">
-        <v>0.007685263747828852</v>
+        <v>0.03799947492766553</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.8176317216550011</v>
+        <v>2.584974135386196</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.4214213007233099, -0.21384214258669232]</t>
+          <t>[1.1383949355350405, 4.031553335237352]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.008127461020991378</v>
+        <v>0.0005071179575535378</v>
       </c>
       <c r="R3" t="n">
-        <v>0.008127461020991378</v>
+        <v>0.0005071179575535378</v>
       </c>
       <c r="S3" t="n">
-        <v>13.83412279456152</v>
+        <v>12.17181275145809</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.989670524963142, 15.678575064159904]</t>
+          <t>[10.452032014247159, 13.891593488669013]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.307907907907978</v>
+        <v>14.31447447447469</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8651451451451635</v>
+        <v>8.715275275275406</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.750670670670793</v>
+        <v>19.91367367367397</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_3_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_3_sawtooth_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.1800000000005</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00181169300196804</v>
+        <v>0.001771351651415731</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01736370865652161</v>
+        <v>0.005639906581920202</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.426578929815001</v>
+        <v>4.279029567740989</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.5468907701493038, 7.3062670894806985]</t>
+          <t>[1.0748332274199077, 7.48322590806207]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.00267725356154136</v>
+        <v>0.008993792202971029</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005354507123082719</v>
+        <v>0.008993792202971029</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.798789787641002</v>
+        <v>-1.031473864241693</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.616421509296004, -0.9811580659860009]</t>
+          <t>[-1.7610529389492324, -0.3018947895341544]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.944869760639456e-05</v>
+        <v>0.005708693192945757</v>
       </c>
       <c r="R2" t="n">
-        <v>3.889739521278912e-05</v>
+        <v>0.005708693192945757</v>
       </c>
       <c r="S2" t="n">
-        <v>13.2779275959799</v>
+        <v>14.3010200505568</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.57444867123206, 14.981406520727733]</t>
+          <t>[12.637143803908561, 15.964896297205048]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7.208688688688831</v>
+        <v>4.24364364364374</v>
       </c>
       <c r="X2" t="n">
-        <v>3.932012012012088</v>
+        <v>1.24204204204207</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.48536536536557</v>
+        <v>7.245245245245409</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.32000000000036</v>
+        <v>24.02000000000032</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02282489260903875</v>
+        <v>0.0002572055179461685</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06381024366418274</v>
+        <v>0.003052819451177259</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>3.398310193724882</v>
+        <v>5.221894497828001</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0.18949326739847194, 6.607127120051292]</t>
+          <t>[2.1394668058893327, 8.304322189766669]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.03799947492766553</v>
+        <v>0.0009676545045591567</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03799947492766553</v>
+        <v>0.001935309009118313</v>
       </c>
       <c r="O3" t="n">
-        <v>2.584974135386196</v>
+        <v>1.893131909370426</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.1383949355350405, 4.031553335237352]</t>
+          <t>[1.2012896833546565, 2.5849741353861964]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0005071179575535378</v>
+        <v>1.508719265075342e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0005071179575535378</v>
+        <v>3.017438530150685e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>12.17181275145809</v>
+        <v>13.44355808814234</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.452032014247159, 13.891593488669013]</t>
+          <t>[11.681234399836445, 15.205881776448226]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.31447447447469</v>
+        <v>16.78274274274296</v>
       </c>
       <c r="X3" t="n">
-        <v>8.715275275275406</v>
+        <v>14.13789789789808</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.91367367367397</v>
+        <v>19.42758758758784</v>
       </c>
     </row>
   </sheetData>
